--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -540,10 +540,10 @@
         <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J2">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.024394</v>
+        <v>0.01376766666666667</v>
       </c>
       <c r="N2">
-        <v>0.07318200000000001</v>
+        <v>0.041303</v>
       </c>
       <c r="O2">
-        <v>0.01368854235971825</v>
+        <v>0.02028832877083762</v>
       </c>
       <c r="P2">
-        <v>0.01368854235971825</v>
+        <v>0.02028832877083762</v>
       </c>
       <c r="Q2">
-        <v>0.05627090015666667</v>
+        <v>0.03175858802944444</v>
       </c>
       <c r="R2">
-        <v>0.5064381014100001</v>
+        <v>0.285827292265</v>
       </c>
       <c r="S2">
-        <v>0.01179669642744378</v>
+        <v>0.01668246489332021</v>
       </c>
       <c r="T2">
-        <v>0.01179669642744378</v>
+        <v>0.01668246489332021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.8617934705859058</v>
+        <v>0.8222690533928816</v>
       </c>
       <c r="J3">
-        <v>0.8617934705859057</v>
+        <v>0.8222690533928814</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.757680333333333</v>
+        <v>0.6648326666666667</v>
       </c>
       <c r="N3">
-        <v>5.273041</v>
+        <v>1.994498</v>
       </c>
       <c r="O3">
-        <v>0.9863114576402817</v>
+        <v>0.9797116712291625</v>
       </c>
       <c r="P3">
-        <v>0.9863114576402817</v>
+        <v>0.9797116712291624</v>
       </c>
       <c r="Q3">
-        <v>4.054532038383889</v>
+        <v>1.533603861887778</v>
       </c>
       <c r="R3">
-        <v>36.490788345455</v>
+        <v>13.80243475699</v>
       </c>
       <c r="S3">
-        <v>0.849996774158462</v>
+        <v>0.8055865884995614</v>
       </c>
       <c r="T3">
-        <v>0.8499967741584619</v>
+        <v>0.8055865884995611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H4">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I4">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J4">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.024394</v>
+        <v>0.01376766666666667</v>
       </c>
       <c r="N4">
-        <v>0.07318200000000001</v>
+        <v>0.041303</v>
       </c>
       <c r="O4">
-        <v>0.01368854235971825</v>
+        <v>0.02028832877083762</v>
       </c>
       <c r="P4">
-        <v>0.01368854235971825</v>
+        <v>0.02028832877083762</v>
       </c>
       <c r="Q4">
-        <v>0.009024210652666667</v>
+        <v>0.006864521886222222</v>
       </c>
       <c r="R4">
-        <v>0.08121789587400001</v>
+        <v>0.061780696976</v>
       </c>
       <c r="S4">
-        <v>0.001891845932274475</v>
+        <v>0.003605863877517409</v>
       </c>
       <c r="T4">
-        <v>0.001891845932274475</v>
+        <v>0.003605863877517406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3699356666666667</v>
+        <v>0.4985973333333333</v>
       </c>
       <c r="H5">
-        <v>1.109807</v>
+        <v>1.495792</v>
       </c>
       <c r="I5">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071186</v>
       </c>
       <c r="J5">
-        <v>0.1382065294140942</v>
+        <v>0.1777309466071185</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.757680333333333</v>
+        <v>0.6648326666666667</v>
       </c>
       <c r="N5">
-        <v>5.273041</v>
+        <v>1.994498</v>
       </c>
       <c r="O5">
-        <v>0.9863114576402817</v>
+        <v>0.9797116712291625</v>
       </c>
       <c r="P5">
-        <v>0.9863114576402817</v>
+        <v>0.9797116712291624</v>
       </c>
       <c r="Q5">
-        <v>0.6502286458985556</v>
+        <v>0.3314837947128889</v>
       </c>
       <c r="R5">
-        <v>5.852057813087</v>
+        <v>2.983354152416</v>
       </c>
       <c r="S5">
-        <v>0.1363146834818197</v>
+        <v>0.1741250827296012</v>
       </c>
       <c r="T5">
-        <v>0.1363146834818197</v>
+        <v>0.1741250827296011</v>
       </c>
     </row>
   </sheetData>
